--- a/Documentation/WebTours_Профиль_нагрузки_v1_2_Паршуков Александр).xlsx
+++ b/Documentation/WebTours_Профиль_нагрузки_v1_2_Паршуков Александр).xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parsh\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parsh\OneDrive\Документы\VuGen\Scripts\project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3151811-D56C-4C41-A9BC-3F17873FC8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6873E3-2D7A-4F1E-8E8E-B818BDCF8A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -568,9 +568,6 @@
     <t>Пример простого расчёта</t>
   </si>
   <si>
-    <t>goto_project</t>
-  </si>
-  <si>
     <t>goto_flights</t>
   </si>
   <si>
@@ -596,6 +593,9 @@
   </si>
   <si>
     <t>search_ticket</t>
+  </si>
+  <si>
+    <t>go_to_home_page</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1797,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -1806,7 +1806,7 @@
       <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2567,34 +2567,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="44.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.08984375" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" customWidth="1"/>
-    <col min="13" max="13" width="35.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.90625" customWidth="1"/>
-    <col min="15" max="15" width="23.90625" customWidth="1"/>
+    <col min="9" max="9" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="13" max="13" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" customWidth="1"/>
+    <col min="15" max="15" width="23.88671875" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="18" max="18" width="10.54296875" customWidth="1"/>
-    <col min="19" max="19" width="12.36328125" customWidth="1"/>
-    <col min="21" max="21" width="23.54296875" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" customWidth="1"/>
+    <col min="21" max="21" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
@@ -2703,11 +2703,11 @@
         <v>2</v>
       </c>
       <c r="O2" s="61">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P2" s="62">
         <f>N2+O2</f>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="35">
         <v>61</v>
@@ -2735,7 +2735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
@@ -2994,10 +2994,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="61">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="P6" s="62">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="35">
         <v>120</v>
@@ -3021,7 +3021,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>8</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>32.432432432432435</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>9</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>32.432432432432435</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>32.432432432432435</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>9</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>103.30210772833723</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>62</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>988.88593881691361</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>62</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>32.432432432432435</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>62</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>32.432432432432435</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>62</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>32.432432432432435</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
         <v>62</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>32.432432432432435</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>68</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>12.631578947368421</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>68</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>12.631578947368421</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>68</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>12.631578947368421</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>67</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>67</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>67</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>67</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>67</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="30" t="s">
         <v>67</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>10</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>10</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>10</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>10</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="30" t="s">
         <v>10</v>
       </c>
@@ -3915,14 +3915,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="90" t="s">
         <v>79</v>
       </c>
       <c r="B35" s="91"/>
     </row>
-    <row r="36" spans="1:9" ht="74" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="72" x14ac:dyDescent="0.35">
       <c r="A36" s="37" t="s">
         <v>78</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>63</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="E37" s="52"/>
       <c r="F37" s="51" t="str">
         <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
-        <v>goto_project</v>
+        <v>go_to_home_page</v>
       </c>
       <c r="G37" s="57">
         <f>C37/3</f>
@@ -3982,7 +3982,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>0</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>-4.382064872142525</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>77</v>
       </c>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="I39" s="26"/>
     </row>
-    <row r="40" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
         <v>11</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="40" t="s">
         <v>12</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="40" t="s">
         <v>3</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="40" t="s">
         <v>4</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A44" s="40" t="s">
         <v>13</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A45" s="40" t="s">
         <v>6</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A46" s="40" t="s">
         <v>65</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A47" s="40" t="s">
         <v>64</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A48" s="40" t="s">
         <v>66</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="s">
         <v>7</v>
       </c>
@@ -4352,19 +4352,19 @@
         <v>7.6374890036523535E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A50" s="70"/>
       <c r="B50" s="71"/>
       <c r="C50" s="69"/>
       <c r="D50" s="52"/>
     </row>
-    <row r="51" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="70"/>
       <c r="B51" s="71"/>
       <c r="C51" s="69"/>
       <c r="D51" s="52"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="79" t="s">
         <v>112</v>
       </c>
@@ -4377,7 +4377,7 @@
       <c r="H52" s="80"/>
       <c r="I52" s="81"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="87" t="s">
         <v>76</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="H53" s="88"/>
       <c r="I53" s="89"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="58"/>
       <c r="B54" s="58" t="s">
         <v>108</v>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="I54" s="58"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="82" t="s">
         <v>8</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>1.8333333333333202E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="72" t="s">
         <v>110</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>-4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="72" t="s">
         <v>109</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="72" t="s">
         <v>69</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="72" t="s">
         <v>70</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="76"/>
       <c r="B60" s="77"/>
       <c r="C60" s="77"/>
@@ -4617,16 +4617,16 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -4634,16 +4634,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>'Автоматизированный расчет'!A37</f>
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>'Автоматизированный расчет'!A38</f>
         <v>Вход в систему</v>
@@ -4652,61 +4652,61 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>'Автоматизированный расчет'!A39</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>'Автоматизированный расчет'!A40</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>'Автоматизированный расчет'!A41</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>'Автоматизированный расчет'!A42</f>
         <v>Оплата билета</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>'Автоматизированный расчет'!A43</f>
         <v>Просмотр квитанций</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>'Автоматизированный расчет'!A44</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>'Автоматизированный расчет'!A45</f>
         <v>Выход из системы</v>
@@ -4715,31 +4715,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>'Автоматизированный расчет'!A46</f>
         <v>Перход на страницу регистрации</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>'Автоматизированный расчет'!A47</f>
         <v>Заполнение полей регистарции</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>'Автоматизированный расчет'!A48</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4755,12 +4755,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -5381,25 +5381,25 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.453125" customWidth="1"/>
-    <col min="3" max="4" width="9.08984375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" customWidth="1"/>
-    <col min="8" max="8" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="1.453125" customWidth="1"/>
-    <col min="12" max="12" width="40.36328125" customWidth="1"/>
+    <col min="11" max="11" width="1.44140625" customWidth="1"/>
+    <col min="12" max="12" width="40.33203125" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E9" s="92" t="s">
         <v>33</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="H9" s="92"/>
       <c r="I9" s="92"/>
     </row>
-    <row r="11" spans="5:9" ht="28" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>-1.377410468319562E-2</v>
       </c>
     </row>
-    <row r="13" spans="5:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>-2.0325203252032464E-2</v>
       </c>
     </row>
-    <row r="14" spans="5:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>-2.0325203252032464E-2</v>
       </c>
     </row>
-    <row r="15" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>-4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="16" spans="5:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>5.3571428571428603E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:9" ht="45" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>2.6666666666666616E-2</v>
       </c>
     </row>
-    <row r="18" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>-4.4871794871794934E-2</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E23" s="92" t="s">
         <v>31</v>
       </c>
@@ -5567,7 +5567,7 @@
       <c r="H23" s="92"/>
       <c r="I23" s="92"/>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E26" s="13" t="s">
         <v>0</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>0.14932963476652794</v>
       </c>
     </row>
-    <row r="27" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E27" s="13" t="s">
         <v>1</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>9.8419540229885083E-2</v>
       </c>
     </row>
-    <row r="28" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E28" s="13" t="s">
         <v>2</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>9.4516594516594554E-2</v>
       </c>
     </row>
-    <row r="29" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E29" s="13" t="s">
         <v>3</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>7.1125265392781301E-2</v>
       </c>
     </row>
-    <row r="30" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E30" s="13" t="s">
         <v>20</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>0.19696969696969702</v>
       </c>
     </row>
-    <row r="31" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E31" s="13" t="s">
         <v>5</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0.13711583924349879</v>
       </c>
     </row>
-    <row r="32" spans="5:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E32" s="13" t="s">
         <v>6</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>9.2932665553700611E-2</v>
       </c>
     </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E35" s="92" t="s">
         <v>32</v>
       </c>
@@ -5733,7 +5733,7 @@
       <c r="H35" s="92"/>
       <c r="I35" s="92"/>
     </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E37" s="8" t="s">
         <v>14</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="5:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E38" s="13" t="s">
         <v>0</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E39" s="13" t="s">
         <v>1</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E40" s="13" t="s">
         <v>2</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E41" s="13" t="s">
         <v>3</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E42" s="13" t="s">
         <v>20</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E43" s="13" t="s">
         <v>5</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E44" s="13" t="s">
         <v>6</v>
       </c>
